--- a/test_data/orage_test_data.xlsx
+++ b/test_data/orage_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paras_shah\python_scripts\hybrid_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CFF3F-8668-43F7-BB12-8EE1F779E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AADC1A-6712-4439-B763-2113508F0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="4660" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39045" yWindow="1935" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>User Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Expected Profile Name</t>
-  </si>
-  <si>
-    <t>Expected First Name</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
     <t>admin123</t>
   </si>
   <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>Ken kevin</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Upload File Detail</t>
+  </si>
+  <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
+    <t>C:\Mine\Balaji-Profile_2023.pdf</t>
+  </si>
+  <si>
+    <t>File type not allowed</t>
+  </si>
+  <si>
+    <t>C:\Mine\iFuture.txt</t>
   </si>
 </sst>
 </file>
@@ -99,8 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -382,58 +369,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
